--- a/data/Current_Comparison_SVM_RF/combined_data.xlsx
+++ b/data/Current_Comparison_SVM_RF/combined_data.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.876923076923076</v>
+        <v>0.8769230769230763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.954503616042077</v>
+        <v>0.9545036160420773</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.900065746219592</v>
+        <v>0.9000657462195923</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.846153846153845</v>
+        <v>0.8461538461538456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.950821827744904</v>
+        <v>0.9508218277449043</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G3" t="n">
-        <v>0.946088099934254</v>
+        <v>0.9460880999342538</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.846153846153845</v>
+        <v>0.8461538461538456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.946482577251807</v>
+        <v>0.9464825772518074</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G4" t="n">
-        <v>0.946088099934254</v>
+        <v>0.9460880999342538</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.874358974358974</v>
+        <v>0.8743589743589736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.969756738987508</v>
+        <v>0.9697567389875077</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.884615384615385</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G5" t="n">
-        <v>0.930966469428008</v>
+        <v>0.9309664694280078</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.866666666666666</v>
+        <v>0.8666666666666659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.967784352399737</v>
+        <v>0.9677843523997366</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G6" t="n">
-        <v>0.916502301117686</v>
+        <v>0.9165023011176856</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.91025641025641</v>
+        <v>0.9102564102564102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.979618671926364</v>
+        <v>0.9796186719263642</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.861538461538461</v>
+        <v>0.8615384615384608</v>
       </c>
       <c r="D8" t="n">
-        <v>0.962787639710716</v>
+        <v>0.9627876397107162</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.975673898750822</v>
+        <v>0.9756738987508218</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8692307692307685</v>
       </c>
       <c r="D9" t="n">
-        <v>0.963313609467456</v>
+        <v>0.9633136094674555</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.935897435897436</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9875082182774489</v>
+        <v>0.9875082182774491</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>0.871794871794871</v>
       </c>
       <c r="D10" t="n">
-        <v>0.960683760683761</v>
+        <v>0.9606837606837605</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.91025641025641</v>
+        <v>0.9102564102564102</v>
       </c>
       <c r="G10" t="n">
-        <v>0.985535831689678</v>
+        <v>0.9855358316896778</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.884615384615384</v>
+        <v>0.8846153846153839</v>
       </c>
       <c r="D11" t="n">
-        <v>0.967915844838921</v>
+        <v>0.9679158448389209</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -779,10 +779,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G11" t="n">
-        <v>0.975016436554898</v>
+        <v>0.9750164365548981</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>0.871794871794871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.960552268244575</v>
+        <v>0.9605522682445755</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G12" t="n">
-        <v>0.971729125575279</v>
+        <v>0.9717291255752794</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.856410256410256</v>
+        <v>0.8564102564102557</v>
       </c>
       <c r="D13" t="n">
-        <v>0.956936226166995</v>
+        <v>0.9569362261669951</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G13" t="n">
-        <v>0.967126890203813</v>
+        <v>0.9671268902038133</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.861538461538461</v>
+        <v>0.8615384615384606</v>
       </c>
       <c r="D14" t="n">
-        <v>0.961604207758053</v>
+        <v>0.9616042077580536</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G14" t="n">
-        <v>0.961867192636423</v>
+        <v>0.9618671926364235</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.866666666666666</v>
+        <v>0.8666666666666659</v>
       </c>
       <c r="D15" t="n">
-        <v>0.96594345825115</v>
+        <v>0.9659434582511501</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.948717948717949</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="G15" t="n">
-        <v>0.994082840236686</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>0.871794871794871</v>
       </c>
       <c r="D16" t="n">
-        <v>0.96094674556213</v>
+        <v>0.9609467455621299</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.948717948717949</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="G16" t="n">
-        <v>0.993425378040763</v>
+        <v>0.9934253780407627</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.884615384615384</v>
+        <v>0.8846153846153841</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9631821170282699</v>
+        <v>0.9631821170282704</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.935897435897436</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="G17" t="n">
-        <v>0.992767915844839</v>
+        <v>0.9927679158448389</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>0.871794871794871</v>
       </c>
       <c r="D18" t="n">
-        <v>0.95595003287311</v>
+        <v>0.9559500328731098</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.935897435897436</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="G18" t="n">
-        <v>0.990138067061144</v>
+        <v>0.9901380670611439</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8692307692307685</v>
       </c>
       <c r="D19" t="n">
-        <v>0.96370808678501</v>
+        <v>0.9637080867850095</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.948717948717949</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="G19" t="n">
-        <v>0.993425378040763</v>
+        <v>0.9934253780407627</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.805128205128204</v>
+        <v>0.8051282051282044</v>
       </c>
       <c r="D20" t="n">
-        <v>0.891058514135437</v>
+        <v>0.8910585141354368</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G20" t="n">
-        <v>0.907955292570677</v>
+        <v>0.9079552925706772</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9094017094017089</v>
+        <v>0.9094017094017091</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.942143326758711</v>
+        <v>0.9421433267587114</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.815384615384615</v>
+        <v>0.8153846153846148</v>
       </c>
       <c r="D22" t="n">
-        <v>0.911834319526627</v>
+        <v>0.9118343195266266</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G22" t="n">
-        <v>0.909270216962525</v>
+        <v>0.9092702169625247</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.825641025641025</v>
+        <v>0.8256410256410254</v>
       </c>
       <c r="D23" t="n">
-        <v>0.918934911242603</v>
+        <v>0.9189349112426031</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.900065746219592</v>
+        <v>0.9000657462195923</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.918869165023011</v>
+        <v>0.9188691650230106</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.794871794871795</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="G24" t="n">
-        <v>0.909270216962525</v>
+        <v>0.9092702169625247</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>0.82051282051282</v>
       </c>
       <c r="D25" t="n">
-        <v>0.916305062458908</v>
+        <v>0.9163050624589083</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G25" t="n">
-        <v>0.899408284023669</v>
+        <v>0.8994082840236687</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.81025641025641</v>
+        <v>0.8102564102564098</v>
       </c>
       <c r="D26" t="n">
-        <v>0.910190664036817</v>
+        <v>0.9101906640368174</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G26" t="n">
-        <v>0.95069033530572</v>
+        <v>0.9506903353057199</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.830769230769231</v>
+        <v>0.8307692307692305</v>
       </c>
       <c r="D27" t="n">
-        <v>0.921104536489152</v>
+        <v>0.9211045364891517</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.794871794871795</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="G27" t="n">
         <v>0.903353057199211</v>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.81025641025641</v>
+        <v>0.8102564102564097</v>
       </c>
       <c r="D28" t="n">
-        <v>0.916042077580539</v>
+        <v>0.9160420775805388</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.82051282051282</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G28" t="n">
-        <v>0.932281393819855</v>
+        <v>0.9322813938198553</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.828205128205128</v>
+        <v>0.8282051282051279</v>
       </c>
       <c r="D29" t="n">
-        <v>0.924260355029585</v>
+        <v>0.9242603550295854</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G29" t="n">
-        <v>0.89612097304405</v>
+        <v>0.8961209730440498</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.835897435897435</v>
+        <v>0.8358974358974354</v>
       </c>
       <c r="D30" t="n">
-        <v>0.940565417488494</v>
+        <v>0.9405654174884941</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G30" t="n">
-        <v>0.951347797501644</v>
+        <v>0.9513477975016436</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.838461538461538</v>
+        <v>0.8384615384615379</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9381985535831689</v>
+        <v>0.9381985535831688</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G31" t="n">
-        <v>0.943458251150559</v>
+        <v>0.9434582511505588</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.841025641025641</v>
+        <v>0.8410256410256409</v>
       </c>
       <c r="D32" t="n">
-        <v>0.935568704799474</v>
+        <v>0.9355687047994736</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G32" t="n">
-        <v>0.928994082840237</v>
+        <v>0.9289940828402367</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.848717948717948</v>
+        <v>0.8487179487179484</v>
       </c>
       <c r="D33" t="n">
-        <v>0.943063773833004</v>
+        <v>0.9430637738330041</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G33" t="n">
-        <v>0.935568704799474</v>
+        <v>0.9355687047994741</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.843589743589743</v>
+        <v>0.8435897435897435</v>
       </c>
       <c r="D34" t="n">
-        <v>0.938067061143984</v>
+        <v>0.9380670611439837</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G34" t="n">
         <v>0.9381985535831689</v>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.838461538461538</v>
+        <v>0.8384615384615384</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9395134779750161</v>
+        <v>0.9395134779750162</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.897435897435897</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="G35" t="n">
-        <v>0.952005259697567</v>
+        <v>0.9520052596975673</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538458</v>
       </c>
       <c r="D36" t="n">
-        <v>0.940696909927679</v>
+        <v>0.9406969099276786</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G36" t="n">
-        <v>0.942143326758711</v>
+        <v>0.9421433267587114</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.841025641025641</v>
+        <v>0.8410256410256409</v>
       </c>
       <c r="D37" t="n">
-        <v>0.937935568704799</v>
+        <v>0.9379355687047992</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G37" t="n">
-        <v>0.942143326758711</v>
+        <v>0.9421433267587114</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1632,18 +1632,18 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.882051282051281</v>
+        <v>0.8564102564102557</v>
       </c>
       <c r="D38" t="n">
-        <v>0.958316896778435</v>
+        <v>0.9264957264957261</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000204387, ENSG00000203875</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G38" t="n">
         <v>0.9381985535831689</v>
@@ -1664,21 +1664,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.858974358974358</v>
+        <v>0.8666666666666657</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9535831689677839</v>
+        <v>0.9362919132149898</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387, ENSG00000203875</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387, ENSG00000233493</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G39" t="n">
-        <v>0.953320184089415</v>
+        <v>0.9533201840894149</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.884615384615384</v>
+        <v>0.8641025641025635</v>
       </c>
       <c r="D40" t="n">
-        <v>0.956213017751479</v>
+        <v>0.9339250493096642</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387, ENSG00000167700, ENSG00000203875</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387, ENSG00000233493, ENSG00000141933</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G40" t="n">
-        <v>0.944115713346482</v>
+        <v>0.9441157133464825</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1728,21 +1728,21 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.887179487179487</v>
+        <v>0.8692307692307685</v>
       </c>
       <c r="D41" t="n">
-        <v>0.960486522024983</v>
+        <v>0.9387245233399076</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000203875</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000171858</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G41" t="n">
-        <v>0.965811965811966</v>
+        <v>0.9658119658119657</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1760,21 +1760,21 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.892307692307692</v>
+        <v>0.8512820512820509</v>
       </c>
       <c r="D42" t="n">
-        <v>0.961078238001315</v>
+        <v>0.9405654174884941</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000203875, ENSG00000188290</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000171858, ENSG00000188290</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.897435897435897</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="G42" t="n">
-        <v>0.944115713346483</v>
+        <v>0.9441157133464826</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1792,21 +1792,21 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.848717948717948</v>
+        <v>0.8564102564102557</v>
       </c>
       <c r="D43" t="n">
-        <v>0.953977646285338</v>
+        <v>0.9343852728468109</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000172803, ENSG00000171858</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.884615384615385</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G43" t="n">
-        <v>0.961867192636423</v>
+        <v>0.9618671926364235</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1824,21 +1824,21 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.861538461538461</v>
+        <v>0.8589743589743583</v>
       </c>
       <c r="D44" t="n">
-        <v>0.958316896778435</v>
+        <v>0.9301775147928991</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000203875, ENSG00000171858, ENSG00000184986</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000172803, ENSG00000171858, ENSG00000212123</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.948717948717949</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="G44" t="n">
-        <v>0.99474030243261</v>
+        <v>0.9947403024326101</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1856,21 +1856,21 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8410256410256407</v>
       </c>
       <c r="D45" t="n">
-        <v>0.953451676528599</v>
+        <v>0.9312952005259694</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000167700, ENSG00000203875, ENSG00000172803, ENSG00000212123</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000171858, ENSG00000212123, ENSG00000188290, ENSG00000258429</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G45" t="n">
-        <v>0.990795529257068</v>
+        <v>0.9907955292570677</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1888,21 +1888,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.874358974358974</v>
+        <v>0.8461538461538456</v>
       </c>
       <c r="D46" t="n">
-        <v>0.958579881656804</v>
+        <v>0.9369493754109135</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000167700, ENSG00000203875, ENSG00000130748, ENSG00000171858, ENSG00000155428, ENSG00000212123</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000167700, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000188290</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G46" t="n">
-        <v>0.98948060486522</v>
+        <v>0.9894806048652203</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1920,21 +1920,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.871794871794871</v>
+        <v>0.858974358974358</v>
       </c>
       <c r="D47" t="n">
-        <v>0.955884286653517</v>
+        <v>0.9382642998027609</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000203875, ENSG00000171858, ENSG00000155428, ENSG00000188290, ENSG00000258429</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000167700, ENSG00000172803, ENSG00000171858, ENSG00000212123, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G47" t="n">
-        <v>0.992767915844839</v>
+        <v>0.9927679158448389</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1952,21 +1952,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8538461538461531</v>
       </c>
       <c r="D48" t="n">
-        <v>0.956738987508218</v>
+        <v>0.9380013149243915</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000167700, ENSG00000203875, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000188290</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000167700, ENSG00000172803, ENSG00000171858, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.98948060486522</v>
+        <v>0.9894806048652203</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1984,21 +1984,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.887179487179487</v>
+        <v>0.8615384615384608</v>
       </c>
       <c r="D49" t="n">
-        <v>0.957001972386587</v>
+        <v>0.9357659434582507</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000167700, ENSG00000203875, ENSG00000172803, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000184986</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000167700, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000258429</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G49" t="n">
-        <v>0.981591058514135</v>
+        <v>0.9815910585141355</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2016,21 +2016,21 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.887179487179486</v>
+        <v>0.8512820512820507</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9593688362919131</v>
+        <v>0.9336620644312947</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000167700, ENSG00000203875, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000175602, ENSG00000141933, ENSG00000167700, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000212123, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.935897435897436</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="G50" t="n">
-        <v>0.978303747534517</v>
+        <v>0.9783037475345168</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2048,21 +2048,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8487179487179481</v>
       </c>
       <c r="D51" t="n">
-        <v>0.953451676528599</v>
+        <v>0.9364891518737668</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000167700, ENSG00000203875, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000141933, ENSG00000167700, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.974358974358974</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="G51" t="n">
-        <v>0.995397764628534</v>
+        <v>0.9953977646285339</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2080,18 +2080,18 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8384615384615384</v>
       </c>
       <c r="D52" t="n">
-        <v>0.953320184089414</v>
+        <v>0.9324128862590395</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000175602, ENSG00000141933, ENSG00000167700, ENSG00000203875, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000184986</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000167700, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000143776, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.974358974358974</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="G52" t="n">
         <v>0.992767915844839</v>
@@ -2112,21 +2112,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.871794871794871</v>
+        <v>0.8564102564102555</v>
       </c>
       <c r="D53" t="n">
-        <v>0.952071005917159</v>
+        <v>0.9338593030900721</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198786, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000167700, ENSG00000203875, ENSG00000167476, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000205726, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000143776, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.974358974358974</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="G53" t="n">
-        <v>0.991452991452992</v>
+        <v>0.9914529914529915</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2144,21 +2144,21 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.879487179487179</v>
+        <v>0.8461538461538458</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9568047337278101</v>
+        <v>0.9308349769888228</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000203875, ENSG00000167476, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
+          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000175602, ENSG00000141933, ENSG00000167700, ENSG00000161911, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000243449, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G54" t="n">
-        <v>0.990795529257068</v>
+        <v>0.9907955292570678</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2176,14 +2176,14 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.866666666666666</v>
+        <v>0.8358974358974356</v>
       </c>
       <c r="D55" t="n">
-        <v>0.953846153846153</v>
+        <v>0.9317554240631161</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000203875, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000212123, ENSG00000188290, ENSG00000243449, ENSG00000143776, ENSG00000184986, ENSG00000258429</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000112667, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000130748, ENSG00000172803, ENSG00000171858, ENSG00000155428, ENSG00000101162, ENSG00000212123, ENSG00000188290, ENSG00000184986, ENSG00000258429</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2208,21 +2208,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.843589743589743</v>
+        <v>0.794871794871794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.926429980276134</v>
+        <v>0.8919132149901376</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ENSG00000111678, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000111678, ENSG00000152082, ENSG00000171858</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.807692307692308</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G56" t="n">
-        <v>0.947403024326101</v>
+        <v>0.9474030243261014</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2240,21 +2240,21 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.833333333333333</v>
+        <v>0.7897435897435894</v>
       </c>
       <c r="D57" t="n">
-        <v>0.919329388560157</v>
+        <v>0.8910585141354369</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ENSG00000111678, ENSG00000152082, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000111678, ENSG00000152082, ENSG00000171858</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G57" t="n">
-        <v>0.934253780407627</v>
+        <v>0.9342537804076265</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2272,21 +2272,21 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.82051282051282</v>
+        <v>0.7589743589743586</v>
       </c>
       <c r="D58" t="n">
-        <v>0.923339907955292</v>
+        <v>0.8849441157133462</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000111678, ENSG00000152082, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000111678, ENSG00000152082, ENSG00000175602, ENSG00000171858</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.946745562130178</v>
+        <v>0.9467455621301776</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2304,21 +2304,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.830769230769231</v>
+        <v>0.7641025641025636</v>
       </c>
       <c r="D59" t="n">
-        <v>0.931623931623931</v>
+        <v>0.886127547666009</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000111678, ENSG00000152082, ENSG00000175602, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000111678, ENSG00000152082, ENSG00000175602, ENSG00000161179, ENSG00000171858</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G59" t="n">
-        <v>0.933596318211703</v>
+        <v>0.9335963182117029</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2336,21 +2336,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.825641025641025</v>
+        <v>0.8256410256410252</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93241288625904</v>
+        <v>0.9012491781722547</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000111678, ENSG00000152082, ENSG00000175602, ENSG00000161179, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000175602, ENSG00000161179, ENSG00000171858</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G60" t="n">
-        <v>0.943458251150559</v>
+        <v>0.9434582511505589</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2368,21 +2368,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.835897435897435</v>
+        <v>0.8410256410256409</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9330703484549639</v>
+        <v>0.9231426692965151</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000175602, ENSG00000161179, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000161179, ENSG00000171858</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G61" t="n">
-        <v>0.910585141354372</v>
+        <v>0.9105851413543721</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2400,18 +2400,18 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.856410256410256</v>
+        <v>0.8564102564102557</v>
       </c>
       <c r="D62" t="n">
-        <v>0.949506903353057</v>
+        <v>0.9220249835634448</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000161179, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000103254, ENSG00000161179, ENSG00000171858</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G62" t="n">
         <v>0.942800788954635</v>
@@ -2432,21 +2432,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.866666666666666</v>
+        <v>0.8282051282051277</v>
       </c>
       <c r="D63" t="n">
-        <v>0.94490466798159</v>
+        <v>0.920841551610782</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000103254, ENSG00000161179, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000171858</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.884615384615385</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G63" t="n">
-        <v>0.946088099934254</v>
+        <v>0.9460880999342538</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2464,21 +2464,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.851282051282051</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D64" t="n">
-        <v>0.945956607495069</v>
+        <v>0.919921104536489</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000203875, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000130748, ENSG00000171858</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G64" t="n">
-        <v>0.944115713346483</v>
+        <v>0.9441157133464826</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2496,21 +2496,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8256410256410252</v>
       </c>
       <c r="D65" t="n">
-        <v>0.948191978961209</v>
+        <v>0.9174884944115709</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000130748, ENSG00000171858</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G65" t="n">
-        <v>0.952005259697567</v>
+        <v>0.9520052596975673</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.843589743589743</v>
+        <v>0.8307692307692305</v>
       </c>
       <c r="D66" t="n">
-        <v>0.943852728468113</v>
+        <v>0.9203813280736352</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G66" t="n">
-        <v>0.952662721893491</v>
+        <v>0.9526627218934911</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2560,21 +2560,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.848717948717948</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D67" t="n">
-        <v>0.942800788954635</v>
+        <v>0.9178172255095326</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9388560157790929</v>
+        <v>0.9388560157790927</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2592,21 +2592,21 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.848717948717948</v>
+        <v>0.8256410256410252</v>
       </c>
       <c r="D68" t="n">
-        <v>0.946219592373438</v>
+        <v>0.9167652859960549</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G68" t="n">
-        <v>0.931623931623932</v>
+        <v>0.9316239316239316</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2624,21 +2624,21 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.846153846153845</v>
+        <v>0.8230769230769226</v>
       </c>
       <c r="D69" t="n">
-        <v>0.946351084812623</v>
+        <v>0.9211702827087436</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G69" t="n">
-        <v>0.916502301117686</v>
+        <v>0.9165023011176857</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2656,21 +2656,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.851282051282051</v>
+        <v>0.8256410256410252</v>
       </c>
       <c r="D70" t="n">
-        <v>0.943852728468112</v>
+        <v>0.9155818540433923</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858, ENSG00000188290</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000130748, ENSG00000171858, ENSG00000188290, ENSG00000172780</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.82051282051282</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G70" t="n">
-        <v>0.931623931623932</v>
+        <v>0.9316239316239316</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2688,21 +2688,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.846153846153845</v>
+        <v>0.8307692307692305</v>
       </c>
       <c r="D71" t="n">
-        <v>0.945101906640368</v>
+        <v>0.9194608809993424</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858, ENSG00000188290, ENSG00000172780</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000130748, ENSG00000171858, ENSG00000188290, ENSG00000243449, ENSG00000172780</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G71" t="n">
-        <v>0.924391847468771</v>
+        <v>0.9243918474687706</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2720,21 +2720,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.851282051282051</v>
+        <v>0.8179487179487175</v>
       </c>
       <c r="D72" t="n">
-        <v>0.942800788954635</v>
+        <v>0.9174227481919784</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000203875, ENSG00000130748, ENSG00000171858, ENSG00000188290, ENSG00000243449, ENSG00000172780</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000167476, ENSG00000130748, ENSG00000171858, ENSG00000188290, ENSG00000243449, ENSG00000172780</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G72" t="n">
-        <v>0.951347797501644</v>
+        <v>0.9513477975016437</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2752,21 +2752,21 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.851282051282051</v>
+        <v>0.8282051282051279</v>
       </c>
       <c r="D73" t="n">
-        <v>0.946416831032215</v>
+        <v>0.9254437869822481</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000203875, ENSG00000167476, ENSG00000130748, ENSG00000171858, ENSG00000188290, ENSG00000243449, ENSG00000172780</t>
+          <t>ENSG00000198804, ENSG00000179085, ENSG00000111678, ENSG00000152082, ENSG00000204387, ENSG00000233493, ENSG00000198899, ENSG00000112667, ENSG00000198727, ENSG00000175602, ENSG00000141933, ENSG00000103254, ENSG00000167700, ENSG00000161179, ENSG00000167476, ENSG00000130748, ENSG00000171858, ENSG00000188290, ENSG00000243449, ENSG00000172780</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G73" t="n">
-        <v>0.947403024326101</v>
+        <v>0.9474030243261012</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2784,21 +2784,21 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.81025641025641</v>
+        <v>0.8512820512820504</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9190006574621959</v>
+        <v>0.9321499013806702</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ENSG00000236552, ENSG00000272906, ENSG00000269893</t>
+          <t>ENSG00000236552, ENSG00000203875, ENSG00000269893</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.884615384615385</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G74" t="n">
-        <v>0.924391847468771</v>
+        <v>0.9243918474687706</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2816,21 +2816,21 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8692307692307686</v>
       </c>
       <c r="D75" t="n">
-        <v>0.942274819197896</v>
+        <v>0.9543721236028924</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000225864, ENSG00000269893</t>
+          <t>ENSG00000236552, ENSG00000225864, ENSG00000203875, ENSG00000269893</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.897435897435897</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.944115713346483</v>
+        <v>0.9441157133464826</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2848,18 +2848,18 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.848717948717948</v>
+        <v>0.8538461538461535</v>
       </c>
       <c r="D76" t="n">
-        <v>0.94766600920447</v>
+        <v>0.9403681788297169</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000269893</t>
+          <t>ENSG00000236552, ENSG00000272906, ENSG00000203875, ENSG00000269893, ENSG00000278771</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.897435897435897</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="G76" t="n">
         <v>0.9381985535831689</v>
@@ -2880,18 +2880,18 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.876923076923076</v>
+        <v>0.866666666666666</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9573964497041419</v>
+        <v>0.9567389875082182</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000269893, ENSG00000278771, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000278771</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.884615384615385</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G77" t="n">
         <v>0.948060486522025</v>
@@ -2912,18 +2912,18 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.864102564102563</v>
+        <v>0.871794871794871</v>
       </c>
       <c r="D78" t="n">
-        <v>0.955950032873109</v>
+        <v>0.9633136094674553</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000269893, ENSG00000228205, ENSG00000278771</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000278771</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G78" t="n">
         <v>0.942800788954635</v>
@@ -2944,21 +2944,21 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.851282051282051</v>
+        <v>0.871794871794871</v>
       </c>
       <c r="D79" t="n">
-        <v>0.945562130177514</v>
+        <v>0.9634451019066399</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000269893, ENSG00000278771, ENSG00000276791, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000278771, ENSG00000265393</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8895463510848119</v>
+        <v>0.8895463510848125</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -2976,21 +2976,21 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8692307692307685</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9542406311637081</v>
+        <v>0.9634451019066399</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000269893, ENSG00000226085, ENSG00000240877, ENSG00000278771, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000226085, ENSG00000278771, ENSG00000265393</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G80" t="n">
-        <v>0.8310322156476</v>
+        <v>0.8310322156476002</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3008,21 +3008,21 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.869230769230768</v>
+        <v>0.8897435897435892</v>
       </c>
       <c r="D81" t="n">
-        <v>0.945759368836291</v>
+        <v>0.9589086127547661</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000276791</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000226085, ENSG00000278771, ENSG00000273599</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="G81" t="n">
-        <v>0.917817225509533</v>
+        <v>0.9178172255095333</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3040,21 +3040,21 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.887179487179487</v>
+        <v>0.8692307692307685</v>
       </c>
       <c r="D82" t="n">
-        <v>0.957790927021696</v>
+        <v>0.960815253122945</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000269893, ENSG00000226085, ENSG00000278771, ENSG00000231351, ENSG00000273599, ENSG00000272677, ENSG00000237842</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000265393</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.884615384615385</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G82" t="n">
-        <v>0.959894806048652</v>
+        <v>0.9598948060486522</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3072,21 +3072,21 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.871794871794871</v>
+        <v>0.8564102564102558</v>
       </c>
       <c r="D83" t="n">
-        <v>0.943589743589743</v>
+        <v>0.9577909270216958</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000265393</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G83" t="n">
-        <v>0.959894806048652</v>
+        <v>0.9598948060486522</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3104,21 +3104,21 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.882051282051281</v>
+        <v>0.8615384615384608</v>
       </c>
       <c r="D84" t="n">
-        <v>0.951610782380013</v>
+        <v>0.9556870479947399</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000237842, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000231351, ENSG00000265393</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G84" t="n">
-        <v>0.948717948717949</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3136,21 +3136,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.882051282051281</v>
+        <v>0.8820512820512814</v>
       </c>
       <c r="D85" t="n">
-        <v>0.95844838921762</v>
+        <v>0.9583168967784348</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000237842, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000276791, ENSG00000273599, ENSG00000237842, ENSG00000232229</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G85" t="n">
-        <v>0.933596318211703</v>
+        <v>0.9335963182117029</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3168,21 +3168,21 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.864102564102563</v>
+        <v>0.8589743589743583</v>
       </c>
       <c r="D86" t="n">
-        <v>0.942472057856673</v>
+        <v>0.9580539119000655</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000240877, ENSG00000278771, ENSG00000231351, ENSG00000273599, ENSG00000272677, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000222020, ENSG00000272677, ENSG00000237842, ENSG00000265393</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.807692307692308</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G86" t="n">
-        <v>0.922419460880999</v>
+        <v>0.9224194608809994</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3200,18 +3200,18 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.876923076923076</v>
+        <v>0.8589743589743583</v>
       </c>
       <c r="D87" t="n">
-        <v>0.954766600920447</v>
+        <v>0.9580539119000653</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000240877, ENSG00000278771, ENSG00000273599, ENSG00000272677, ENSG00000237842, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000203875, ENSG00000269893, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000276791, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G87" t="n">
         <v>0.997370151216305</v>
@@ -3232,21 +3232,21 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.884615384615384</v>
+        <v>0.8615384615384609</v>
       </c>
       <c r="D88" t="n">
-        <v>0.955161078238001</v>
+        <v>0.955555555555555</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000222020, ENSG00000231351, ENSG00000273599, ENSG00000237842, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000277383, ENSG00000228205, ENSG00000278771, ENSG00000231351, ENSG00000276791, ENSG00000272256, ENSG00000272677, ENSG00000237842, ENSG00000265393</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.935897435897436</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="G88" t="n">
-        <v>0.990795529257068</v>
+        <v>0.9907955292570677</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3264,21 +3264,21 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.874358974358974</v>
+        <v>0.8794871794871788</v>
       </c>
       <c r="D89" t="n">
-        <v>0.950953320184089</v>
+        <v>0.9579224194608807</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000222020, ENSG00000273599, ENSG00000237842, ENSG00000265393, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000231351, ENSG00000272256, ENSG00000237842, ENSG00000265393, ENSG00000232229, ENSG00000207003</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G89" t="n">
-        <v>0.998027613412229</v>
+        <v>0.9980276134122288</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3296,21 +3296,21 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.874358974358974</v>
+        <v>0.8794871794871788</v>
       </c>
       <c r="D90" t="n">
-        <v>0.952136752136752</v>
+        <v>0.9583168967784349</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000200183, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000237842, ENSG00000265393</t>
+          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000237842, ENSG00000265393</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G90" t="n">
-        <v>0.998027613412229</v>
+        <v>0.9980276134122288</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3328,21 +3328,21 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.871794871794871</v>
+        <v>0.8820512820512814</v>
       </c>
       <c r="D91" t="n">
-        <v>0.94792899408284</v>
+        <v>0.9575279421433265</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000222020, ENSG00000231351, ENSG00000273599, ENSG00000237842, ENSG00000265393, ENSG00000232229, ENSG00000207003</t>
+          <t>ENSG00000213442, ENSG00000266538, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000231351, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000237842, ENSG00000265393, ENSG00000232229</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.974358974358974</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="G91" t="n">
-        <v>0.997370151216305</v>
+        <v>0.9973701512163051</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3360,21 +3360,21 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.815384615384615</v>
+        <v>0.8512820512820511</v>
       </c>
       <c r="D92" t="n">
-        <v>0.880078895463511</v>
+        <v>0.9204470742932276</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000215030</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000203875</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.82051282051282</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G92" t="n">
-        <v>0.867192636423406</v>
+        <v>0.8671926364234056</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3392,21 +3392,21 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.805128205128204</v>
+        <v>0.8153846153846148</v>
       </c>
       <c r="D93" t="n">
-        <v>0.868902038132807</v>
+        <v>0.908547008547008</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000225178, ENSG00000215030</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000203875, ENSG00000215030</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.82051282051282</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G93" t="n">
-        <v>0.848783694937541</v>
+        <v>0.8487836949375411</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3424,18 +3424,18 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8179487179487175</v>
       </c>
       <c r="D94" t="n">
-        <v>0.897830374753451</v>
+        <v>0.907297830374753</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000225178, ENSG00000269893, ENSG00000215030</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000225178, ENSG00000203875, ENSG00000215030</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G94" t="n">
         <v>0.908612754766601</v>
@@ -3456,21 +3456,21 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8282051282051279</v>
       </c>
       <c r="D95" t="n">
-        <v>0.895660749506903</v>
+        <v>0.9202498356344506</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000276791</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.807692307692308</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G95" t="n">
-        <v>0.830374753451676</v>
+        <v>0.8303747534516766</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3488,21 +3488,21 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.841025641025641</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="D96" t="n">
-        <v>0.910585141354372</v>
+        <v>0.9211045364891515</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000276791</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000276791</t>
         </is>
       </c>
       <c r="F96" t="n">
         <v>0.782051282051282</v>
       </c>
       <c r="G96" t="n">
-        <v>0.870479947403024</v>
+        <v>0.8704799474030244</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3520,21 +3520,21 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.825641025641025</v>
+        <v>0.8410256410256409</v>
       </c>
       <c r="D97" t="n">
-        <v>0.906574621959237</v>
+        <v>0.9247863247863244</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000276791, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000276791</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G97" t="n">
-        <v>0.869822485207101</v>
+        <v>0.8698224852071007</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3552,21 +3552,21 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.815384615384615</v>
+        <v>0.8384615384615381</v>
       </c>
       <c r="D98" t="n">
-        <v>0.902301117685733</v>
+        <v>0.9212360289283362</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000276791, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000276791, ENSG00000232229</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.794871794871795</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8408941485864559</v>
+        <v>0.8408941485864563</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3584,21 +3584,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.825641025641025</v>
+        <v>0.8461538461538458</v>
       </c>
       <c r="D99" t="n">
-        <v>0.900788954635108</v>
+        <v>0.9253780407626557</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000222020, ENSG00000276791, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000276791, ENSG00000232229</t>
         </is>
       </c>
       <c r="F99" t="n">
         <v>0.782051282051282</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8658777120315579</v>
+        <v>0.8658777120315582</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3616,21 +3616,21 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.825641025641025</v>
+        <v>0.8410256410256409</v>
       </c>
       <c r="D100" t="n">
-        <v>0.897304404996712</v>
+        <v>0.9264299802761335</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000222020, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000222020, ENSG00000276791, ENSG00000232229</t>
         </is>
       </c>
       <c r="F100" t="n">
         <v>0.782051282051282</v>
       </c>
       <c r="G100" t="n">
-        <v>0.85207100591716</v>
+        <v>0.8520710059171597</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3648,21 +3648,21 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.843589743589743</v>
+        <v>0.8358974358974356</v>
       </c>
       <c r="D101" t="n">
-        <v>0.918211702827087</v>
+        <v>0.9247863247863244</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000222020, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000222020, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.807692307692308</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G101" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3680,21 +3680,21 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.838461538461538</v>
+        <v>0.8487179487179484</v>
       </c>
       <c r="D102" t="n">
-        <v>0.920841551610782</v>
+        <v>0.9362261669953973</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000222020, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.82051282051282</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G102" t="n">
-        <v>0.876397107166338</v>
+        <v>0.8763971071663379</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3712,21 +3712,21 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.843589743589743</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9151873767258381</v>
+        <v>0.9391190006574618</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.807692307692308</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G103" t="n">
-        <v>0.942143326758711</v>
+        <v>0.9421433267587114</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3744,21 +3744,21 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8435897435897433</v>
       </c>
       <c r="D104" t="n">
-        <v>0.916896778435239</v>
+        <v>0.9370151216305056</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272677, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000272677, ENSG00000232229</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.807692307692308</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G104" t="n">
-        <v>0.932281393819855</v>
+        <v>0.9322813938198554</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3776,21 +3776,21 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.833333333333333</v>
+        <v>0.8615384615384606</v>
       </c>
       <c r="D105" t="n">
-        <v>0.916502301117686</v>
+        <v>0.9376725838264296</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272677, ENSG00000232229</t>
         </is>
       </c>
       <c r="F105" t="n">
         <v>0.782051282051282</v>
       </c>
       <c r="G105" t="n">
-        <v>0.933596318211703</v>
+        <v>0.9335963182117029</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3808,21 +3808,21 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.823076923076922</v>
+        <v>0.8487179487179481</v>
       </c>
       <c r="D106" t="n">
-        <v>0.917159763313609</v>
+        <v>0.9426692965154496</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G106" t="n">
-        <v>0.942143326758711</v>
+        <v>0.9421433267587114</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3840,21 +3840,21 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.843589743589743</v>
+        <v>0.8461538461538456</v>
       </c>
       <c r="D107" t="n">
-        <v>0.919789612097304</v>
+        <v>0.9403024326101244</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.82051282051282</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G107" t="n">
-        <v>0.936226166995398</v>
+        <v>0.9362261669953977</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3872,21 +3872,21 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.856410256410256</v>
+        <v>0.8512820512820509</v>
       </c>
       <c r="D108" t="n">
-        <v>0.931755424063116</v>
+        <v>0.9401709401709398</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.897435897435897</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="G108" t="n">
-        <v>0.950032873109796</v>
+        <v>0.9500328731097962</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3904,21 +3904,21 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.848717948717949</v>
+        <v>0.8641025641025635</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9318211702827091</v>
+        <v>0.9479289940828396</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000240877, ENSG00000278771, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
+          <t>ENSG00000213442, ENSG00000236552, ENSG00000272906, ENSG00000225864, ENSG00000225178, ENSG00000203875, ENSG00000269893, ENSG00000215030, ENSG00000277383, ENSG00000226085, ENSG00000228205, ENSG00000278771, ENSG00000222020, ENSG00000231351, ENSG00000276791, ENSG00000273599, ENSG00000272256, ENSG00000272677, ENSG00000265393, ENSG00000232229</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.897435897435897</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="G109" t="n">
-        <v>0.95069033530572</v>
+        <v>0.9506903353057199</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
